--- a/biology/Médecine/Processus_intra-jugulaire_de_l'os_occipital/Processus_intra-jugulaire_de_l'os_occipital.xlsx
+++ b/biology/Médecine/Processus_intra-jugulaire_de_l'os_occipital/Processus_intra-jugulaire_de_l'os_occipital.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Processus_intra-jugulaire_de_l%27os_occipital</t>
+          <t>Processus_intra-jugulaire_de_l'os_occipital</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le processus intra-jugulaire de l'os occipital (ou épine jugulaire de l’os occipital) est un petite épine osseuse s'étendant au milieu de l'incisure jugulaire de l'occipital de la partie latérale de l'os occipital.
 Il est relié au processus intra-jugulaire de l'os temporal par un faisceau fibreux.
